--- a/Penjadwalan_dosen/reservasi_ruangan.xlsx
+++ b/Penjadwalan_dosen/reservasi_ruangan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,40 +451,55 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>SEMESTER</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SKS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>KELAS</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MODE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PRODI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GEDUNG</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LANTAI</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RUANGAN</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>MULAI</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SELESAI</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RUANGAN</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>TANGGAL_DIBUAT</t>
         </is>
@@ -506,97 +521,425 @@
           <t>Sains</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>TI24E</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>TI</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>GKB 1</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-06-21 23:50:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RABU</t>
+          <t>SENIN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Riki</t>
+          <t>Ikbal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dasar Pencurian</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+          <t>PKN</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>TI24E</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>TI</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-06-21 23:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SENIN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zaenal Alamsyah, M.Kom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Computer Vision</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TI23A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-06-22 00:09:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SELASA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anggun Fergina, M.Kom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sains</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TI24E</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-06-22 00:17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KAMIS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dr. Nurkhan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Interaksi Manusia dan Komputer</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TI23D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-06-08 19:29:19</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-06-22 00:26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SELASA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dede Sukmawan, M.Kom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Big Data Arsitektur dan Infrastruktur</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TI24E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-06-22 00:29:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SELASA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dr. Nurkhan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Interaksi Manusia dan Komputer</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TI23A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-06-22 00:36:40</t>
         </is>
       </c>
     </row>

--- a/Penjadwalan_dosen/reservasi_ruangan.xlsx
+++ b/Penjadwalan_dosen/reservasi_ruangan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,6 +943,72 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SELASA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dr. Iwan Setiawan, S.T., M.T</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Interaksi Manusia dan Komputer</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>45365</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-06-22 19:16:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
